--- a/biology/Histoire de la zoologie et de la botanique/Aristide_Letourneux/Aristide_Letourneux.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Aristide_Letourneux/Aristide_Letourneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aristide-Horace Letourneux, né le 21 février 1820 à Rennes (France), et mort le 3 mars 1890 à Alger (Algérie)[1], est un magistrat, botaniste et entomologiste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aristide-Horace Letourneux, né le 21 février 1820 à Rennes (France), et mort le 3 mars 1890 à Alger (Algérie), est un magistrat, botaniste et entomologiste français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Originaire d'Angers, sa famille est une des plus anciennes de la ville. Son père Horace Letourneux est procureur général près les cours d'appel de Douai, Poitiers et Riom puis président de chambre à la cour d'appel de Rouen. Il fait ses études au collège de Rennes et après des études de droit, obtient le diplôme de docteur en droit. Il commence sa carrière en étant secrétaire du parquet à Rennes puis substitut du procureur à Chateaulin et Saint-Flour. Il étudie la langue celtique.
 En 1850, il s'installe à Nantes après la disgrâce paternelle à la suite de la révolution de 1848. Il entame une collection de mollusques avec son oncle Tacite Letourneux, passionné d'histoire naturelle et lui aussi magistrat.
@@ -544,7 +558,9 @@
           <t>La Kabylie et les coutumes kabyles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est coauteur avec le militaire Adolphe Hanoteau d'un ouvrage intitulé La Kabylie et les coutumes kabyles. Cette œuvre en trois volumes parut la première fois en 1868 à Paris, éditée par l'Imprimerie nationale (1872-1873), puis une seconde fois chez Challamel en 1893. Une nouvelle édition (revue et augmentée) est sortie aux Éditions Bouchène en 2003. Le livre contient une enquête minutieuse sur la Kabylie : la géographie, les villages, les tribus, la population, la faune, la flore, l'organisation sociale et les lois coutumières régissant les affaires des villageois.
 Le succès de l'ouvrage à l'époque est retentissant et les articles à son sujet sont nombreux. À la suite de ce succès, Letourneux est nommé chevalier de la légion d'honneur, officier d'académie, officier du Saint-Sauveur.
@@ -576,7 +592,9 @@
           <t>Fin de carrière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1876, il est envoyé en Égypte pour siéger et défendre les intérêts de la France dans une cour mixte à Alexandrie, il en est élu vice-président. En 1880, il prend sa retraite et visite l'Europe, l'Asie Mineure jusqu'au Liban.
 En 1881, il s'installe dans le quartier Saint-Eugène d'Alger tout en explorant la côte à Dellys et à Bougie. Sa renommée est telle qu'il est invité à participer à l'Exploration scientifique de la Tunisie (1883-1885), dirigée par Ernest Cosson, chargée d’étudier l’histoire naturelle de la Tunisie et à laquelle participent Paul-Napoléon Doumet-Adanson (1834-1897), Victor Constant Reboud (1821-1889) et Edmond Bonnet (1848-1922). Aristide Letourneux rédige des rapports en malacologie, botanique et entomologie à cette occasion.
@@ -610,7 +628,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Officier de la Légion d'honneur
  Officier d'Académie</t>
@@ -641,7 +661,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Étude Botanique Sur La Kabylie Du Jurjura, Kessinger Publishing, 1871.
 avec Adolphe Hanoteau, La Kabylie et les coutumes kabyles, A.Challamel, 1893.</t>
